--- a/data/trans_bre/P12B1_1_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P12B1_1_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,7 +657,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,26</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,27 +667,47 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,91</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>91,77%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-36,66%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-18,42%</t>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-43,35%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-21,52%</t>
         </is>
       </c>
     </row>
@@ -673,7 +725,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 71,56</t>
+          <t>-2,65; 0,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +735,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,11; 29,32</t>
+          <t>-3,97; 1,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 1,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,09; 1,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,40 +792,60 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>25,07</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-30,38</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,74</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,04</t>
+          <t>-4,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>116,77%</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,18%</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-40,73%</t>
+          <t>-35,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-82,26%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-30,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-47,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -768,32 +860,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-28,63; 78,57</t>
+          <t>-3,29; 1,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-78,42; 16,7</t>
+          <t>-14,42; -0,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-55,65; 38,65</t>
+          <t>-2,35; 2,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,01; 84,75</t>
+          <t>-20,71; 2,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,43; 4,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 6,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 6,97</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-90,1; 97,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-32,18</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,24</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,64</t>
+          <t>-0,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,1</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-57,32%</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,81%</t>
+          <t>-2,93</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>-33,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>38,91%</t>
+          <t>37,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-18,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>51,76%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>65,22%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-42,45%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-82,17; 29,77</t>
+          <t>-8,8; 2,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-50,36; 33,12</t>
+          <t>-6,58; 4,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-52,14; 34,46</t>
+          <t>-9,14; 2,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 64,78</t>
+          <t>-1,84; 5,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,43; 3,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 143,92</t>
+          <t>-10,79; 1,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-72,79; 158,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,93; 666,28</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-86,04; 304,82</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-41,35; 326,13</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-87,33; 52,17</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-12,86</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>110,64%</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-29,94%</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-85,83%</t>
+          <t>140,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>39,97%</t>
+          <t>-18,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-84,2%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>287,61%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-40,46%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-11,2%</t>
         </is>
       </c>
     </row>
@@ -968,32 +1140,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 22,09</t>
+          <t>-0,67; 2,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 13,36</t>
+          <t>-1,59; 1,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-31,0; -1,16</t>
+          <t>-3,07; -0,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,84; 25,82</t>
+          <t>-0,21; 5,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 1,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 1,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1002,6 +1174,26 @@
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1020,7 +1212,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,18</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1035,27 +1227,47 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,96</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
+      <c r="K12" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>96,89%</t>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>153,38%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
         </is>
       </c>
     </row>
@@ -1068,7 +1280,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,23; 0,0</t>
+          <t>-2,12; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1083,17 +1295,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 20,48</t>
+          <t>0,0; 4,01</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 3,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,72; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1102,6 +1314,26 @@
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1125,7 +1357,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,88</t>
+          <t>-1,6</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1135,27 +1367,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,52</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
+      <c r="K14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-8,99%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>25,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1425,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,19; 0,0</t>
+          <t>-7,91; 0,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1435,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 11,57</t>
+          <t>-2,58; 0,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,74; 3,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,73; 0,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1202,6 +1454,26 @@
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-10,45</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,56</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,02</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-33,25%</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-47,77%</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-53,31%</t>
+          <t>-27,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>40,18%</t>
+          <t>-39,9%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-36,39%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-12,04%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>51,46%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-34,06%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 4,19</t>
+          <t>-2,16; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-25,87; 1,37</t>
+          <t>-2,79; 0,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-28,73; 0,8</t>
+          <t>-2,42; 0,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,65; 13,37</t>
+          <t>-3,67; 1,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-86,52; 114,74</t>
+          <t>-0,74; 1,57</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-74,95; 16,03</t>
+          <t>-2,64; 0,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-91,19; 11,83</t>
+          <t>-89,69; 177,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-53,42; 289,15</t>
+          <t>-79,37; 40,0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-85,99; 55,61</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-70,84; 74,22</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-54,06; 367,25</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-77,1; 33,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
